--- a/ExpGrowthExcel.xlsx
+++ b/ExpGrowthExcel.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>per-capita rate of growth</t>
+    <t>Time (year)</t>
+  </si>
+  <si>
+    <t>per-capita rate of growth (per year)</t>
   </si>
 </sst>
 </file>
@@ -362,17 +362,22 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">

--- a/ExpGrowthExcel.xlsx
+++ b/ExpGrowthExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -362,7 +362,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="D5" sqref="D5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +408,7 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">

--- a/ExpGrowthExcel.xlsx
+++ b/ExpGrowthExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,9 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,13 +364,13 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,7 +378,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -384,7 +386,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -395,6 +397,10 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="3">
+        <f>B2*D$5</f>
+        <v>110.00000000000001</v>
+      </c>
       <c r="D3">
         <v>0.1</v>
       </c>
@@ -403,146 +409,265 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B32" si="0">B3*D$5</f>
+        <v>121.00000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D3+1</f>
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>146.41000000000008</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>161.0510000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>177.15610000000012</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>194.87171000000015</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>214.3588810000002</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>235.79476910000022</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>259.37424601000026</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>285.3116706110003</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>313.84283767210036</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>345.22712143931039</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>379.74983358324147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>417.72481694156562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>459.49729863572225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>505.4470284992945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>555.99173134922398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>611.59090448414645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>672.74999493256109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>740.02499442581723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>814.02749386839901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>895.43024325523902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>984.97326758076304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>1083.4705943388394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>1191.8176537727234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>1310.9994191499959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>1442.0993610649957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>1586.3092971714955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>1744.9402268886452</v>
       </c>
     </row>
   </sheetData>

--- a/ExpGrowthExcel.xlsx
+++ b/ExpGrowthExcel.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,10 +397,6 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <f>B2*D$5</f>
-        <v>110.00000000000001</v>
-      </c>
       <c r="D3">
         <v>0.1</v>
       </c>
@@ -409,265 +405,146 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B32" si="0">B3*D$5</f>
-        <v>121.00000000000003</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>133.10000000000005</v>
-      </c>
-      <c r="D5" s="1">
-        <f>D3+1</f>
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>146.41000000000008</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>161.0510000000001</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>177.15610000000012</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>194.87171000000015</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>214.3588810000002</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>235.79476910000022</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>259.37424601000026</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>285.3116706110003</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>313.84283767210036</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>345.22712143931039</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>379.74983358324147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>417.72481694156562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>459.49729863572225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>505.4470284992945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>555.99173134922398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>611.59090448414645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>672.74999493256109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>740.02499442581723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>814.02749386839901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>895.43024325523902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>984.97326758076304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>1083.4705943388394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>1191.8176537727234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>1310.9994191499959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>1442.0993610649957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>1586.3092971714955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <f t="shared" si="0"/>
-        <v>1744.9402268886452</v>
       </c>
     </row>
   </sheetData>
